--- a/medicine/Mort/Lithopédion/Lithopédion.xlsx
+++ b/medicine/Mort/Lithopédion/Lithopédion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lithop%C3%A9dion</t>
+          <t>Lithopédion</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lithopédion  est un fœtus issu d'une grossesse extra-utérine non arrivée à terme, et qui est mort sans avoir été expulsé, sachant que celui-ci n'a pas été diagnostiqué durant cette période. Il s'ensuit une calcification et une tolérance pouvant dépasser un demi-siècle. Les cas de lithopédion sont très rares et, historiquement, connus et identifiés depuis 1678. Aujourd'hui, ceux-ci surviennent généralement dans un milieu socioculturel défavorisé non suivi médicalement (absence d'échographie).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lithop%C3%A9dion</t>
+          <t>Lithopédion</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Description et symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lithopédion (« enfant de pierre[1] » ; du grec λίθος (líthos), « pierre », et παιδίον (paidíon), « petit enfant »[2]), forme rare au diagnostic difficile, représente 1,5 à 2 % des grossesses ectopiques. Il est le résultat de l'évolution d'une grossesse extra-utérine ancienne qui a involué puis qui s'est calcifiée au fil du temps[3].
-Généralement, la patiente concernée ne se plaint d'aucun signe ou symptôme éventuel susceptible d'indiquer la présence d'un fœtus calcifié dans son abdomen[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lithopédion (« enfant de pierre » ; du grec λίθος (líthos), « pierre », et παιδίον (paidíon), « petit enfant »), forme rare au diagnostic difficile, représente 1,5 à 2 % des grossesses ectopiques. Il est le résultat de l'évolution d'une grossesse extra-utérine ancienne qui a involué puis qui s'est calcifiée au fil du temps.
+Généralement, la patiente concernée ne se plaint d'aucun signe ou symptôme éventuel susceptible d'indiquer la présence d'un fœtus calcifié dans son abdomen.
 Il ne faut pas confondre les cas de lithopédion avec les cas de fœtus in fœtu.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lithop%C3%A9dion</t>
+          <t>Lithopédion</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,18 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'enfant pétrifié le plus ancien connu
-Le lithopédion le plus ancien connu a été découvert par des archéologues et aurait environ 3 100 ans[5].
-L'enfant pétrifié de Sens
-Un cas célèbre est celui de l'enfant pétrifié de Sens (1582).
-L'enfant pétrifié de Toulouse
-Une femme du XVIIe siècle dont l'état de grossesse a perduré 25 ans a livré après sa mort à l'autopsie (en 1678) un lithopédion décrit par des médecins de l'époque[6].
-L'enfant pétrifié de Leinzell
-L'enfant pétrifié de Leinzell aurait dû naître en 1674[7]. Sa mère, Anna Mullern (ou Müller), subit ses contractions pendant sept semaines sans que l'enfant pût venir au monde. Malgré ce bébé pétrifié qu'elle continua de garder en elle, elle accoucha encore par la suite d'un fils et d'une fille. 
-Elle chargea le médecin du lieu, le Dr Wohnliche, ainsi que le barbier-chirurgien Knauffen (ou Knaus) de Heubach d'ouvrir son corps après sa mort et d'en extraire l'enfant[8]. Cependant la femme survécut à son médecin et atteignit 91 ans, selon l'Université de Tübingen[7], et 94 selon Bondeson[9], si bien que le barbier-chirurgien l'autopsia sans assistance médicale. C'est seulement après qu'un lithopédion bien conservé se fut montré que l'on appela le médecin, Johann Georg Steigerthal, qui rédigea la première description et fit le dessin de l'enfant pétrifié de Leinzell. 
-Contrairement à l'enfant pétrifié de Sens celui d'Anna Mullern (ou Müller) a été conservé et se trouve maintenant à Tübingen.
-Fœtus de Costebelle
-L'hypothèse du lithopédion a pu être évoquée comme la seule alternative au diagnostic de syphilis congénitale précoce du fœtus de Costebelle[10] (Rothschild et al, 1993) malgré quelques invraisemblances (elle n'explique pas les altérations in vivo du fœtus)[11]. 
+          <t>L'enfant pétrifié le plus ancien connu</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lithopédion le plus ancien connu a été découvert par des archéologues et aurait environ 3 100 ans.
 </t>
         </is>
       </c>
@@ -568,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lithop%C3%A9dion</t>
+          <t>Lithopédion</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,16 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cas modernes dans le Monde</t>
+          <t>Cas historiques</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Afrique
-En 2002, une Marocaine de 75 ans[12] qui souffrait de douleurs abdominales découvre qu'elle a en elle un fœtus fossilisé vieux de 46 ans[13], de même pour une Sud-Africaine de 80 ans venue consulter pour une sévère douleur abdominale, et qui portait en fait un lithopédion depuis 40 ans[14].
-Amérique du Sud
-En 2013, lors d'une radiographie abdominale, une Colombienne de 84 ans s'est découverte enceinte depuis 40 ans d'un fœtus présentant un degré d'évolution de 32 semaines[15],[16].
-En 2015, des médecins ont trouvé une masse dans l’utérus d'une Chilienne de 91 ans, Estela Meléndez. Cette masse était en vérité un fœtus qui s'y trouvait depuis plus de six décennies[17].
+          <t>L'enfant pétrifié de Sens</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un cas célèbre est celui de l'enfant pétrifié de Sens (1582).
 </t>
         </is>
       </c>
@@ -603,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lithop%C3%A9dion</t>
+          <t>Lithopédion</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,12 +629,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Cas historiques</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est aujourd'hui repéré par échographie, puis confirmé par la radiographie[18].
+          <t>L'enfant pétrifié de Toulouse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une femme du XVIIe siècle dont l'état de grossesse a perduré 25 ans a livré après sa mort à l'autopsie (en 1678) un lithopédion décrit par des médecins de l'époque.
 </t>
         </is>
       </c>
@@ -634,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lithop%C3%A9dion</t>
+          <t>Lithopédion</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,10 +666,196 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Cas historiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>L'enfant pétrifié de Leinzell</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'enfant pétrifié de Leinzell aurait dû naître en 1674. Sa mère, Anna Mullern (ou Müller), subit ses contractions pendant sept semaines sans que l'enfant pût venir au monde. Malgré ce bébé pétrifié qu'elle continua de garder en elle, elle accoucha encore par la suite d'un fils et d'une fille. 
+Elle chargea le médecin du lieu, le Dr Wohnliche, ainsi que le barbier-chirurgien Knauffen (ou Knaus) de Heubach d'ouvrir son corps après sa mort et d'en extraire l'enfant. Cependant la femme survécut à son médecin et atteignit 91 ans, selon l'Université de Tübingen, et 94 selon Bondeson, si bien que le barbier-chirurgien l'autopsia sans assistance médicale. C'est seulement après qu'un lithopédion bien conservé se fut montré que l'on appela le médecin, Johann Georg Steigerthal, qui rédigea la première description et fit le dessin de l'enfant pétrifié de Leinzell. 
+Contrairement à l'enfant pétrifié de Sens celui d'Anna Mullern (ou Müller) a été conservé et se trouve maintenant à Tübingen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lithopédion</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lithop%C3%A9dion</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cas historiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fœtus de Costebelle</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hypothèse du lithopédion a pu être évoquée comme la seule alternative au diagnostic de syphilis congénitale précoce du fœtus de Costebelle (Rothschild et al, 1993) malgré quelques invraisemblances (elle n'explique pas les altérations in vivo du fœtus). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lithopédion</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lithop%C3%A9dion</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cas modernes dans le Monde</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Afrique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2002, une Marocaine de 75 ans qui souffrait de douleurs abdominales découvre qu'elle a en elle un fœtus fossilisé vieux de 46 ans, de même pour une Sud-Africaine de 80 ans venue consulter pour une sévère douleur abdominale, et qui portait en fait un lithopédion depuis 40 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lithopédion</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lithop%C3%A9dion</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cas modernes dans le Monde</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Amérique du Sud</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2013, lors d'une radiographie abdominale, une Colombienne de 84 ans s'est découverte enceinte depuis 40 ans d'un fœtus présentant un degré d'évolution de 32 semaines,.
+En 2015, des médecins ont trouvé une masse dans l’utérus d'une Chilienne de 91 ans, Estela Meléndez. Cette masse était en vérité un fœtus qui s'y trouvait depuis plus de six décennies.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lithopédion</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lithop%C3%A9dion</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est aujourd'hui repéré par échographie, puis confirmé par la radiographie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lithopédion</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lithop%C3%A9dion</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Photos et dessins</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Représentation d'un lithopédion en 1899.
@@ -663,45 +866,117 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Lithop%C3%A9dion</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lithop%C3%A9dion</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Lithopédion</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lithop%C3%A9dion</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Le lithopédion au cinéma, à la télévision et dans la littérature</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Au cinéma
-À la télévision
-Nip/Tuck (série américaine), saison 3 : dans l’épisode no 13, Joy Kringle (La femme du Père Noël en français), les chirurgiens trouvent un fœtus décédé dans le corps de Joy, alors qu’ils effectuent une liposuccion.
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nip/Tuck (série américaine), saison 3 : dans l’épisode no 13, Joy Kringle (La femme du Père Noël en français), les chirurgiens trouvent un fœtus décédé dans le corps de Joy, alors qu’ils effectuent une liposuccion.
 New York, section criminelle, saison 4 : dans l’épisode no 6, Pièces détachées, une femme est tourmentée par la mort in utero de sa fille survenue une trentaine d'années auparavant. Le terme « bébé de pierre » est utilisé pour la calcification du fœtus par l'inspecteur Eames.
 Saison 1 de Doc : dans l’épisode no 9 une jeune femme entrant dans les ordres, sœur Cécile, est admise pour des douleurs abdominales, à la suite d'une échographie, les médecins découvrent que ce n’est pas une tumeur mais un « embryon calcifié »
-Stat (série télévisée québécoise) Saison 2 Épisode 68: Une femme se plaint de douleurs abdominales, à la suite d'une échographie abdo, elle entre en salle d’opération pour une fissure de l’estomac. Le chirurgien constate alors le fœtus et le retire. Sous le choc, le femme apprend la présence de cet enfant en salle de réveil.
-Dans la littérature
-L'enfant pétrifié, de Valérie Lys, Édition du Palémon
-Roman policier dont la trame tourne autour d'un lithopédion et la vente de celui-ci par un brocanteur, retrouvé assassiné[19].
+Stat (série télévisée québécoise) Saison 2 Épisode 68: Une femme se plaint de douleurs abdominales, à la suite d'une échographie abdo, elle entre en salle d’opération pour une fissure de l’estomac. Le chirurgien constate alors le fœtus et le retire. Sous le choc, le femme apprend la présence de cet enfant en salle de réveil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lithopédion</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lithop%C3%A9dion</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Le lithopédion au cinéma, à la télévision et dans la littérature</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dans la littérature</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>L'enfant pétrifié, de Valérie Lys, Édition du Palémon
+Roman policier dont la trame tourne autour d'un lithopédion et la vente de celui-ci par un brocanteur, retrouvé assassiné.
 Sous d'autres formes nous reviendrons, de Claro, Editions du Seuil, coll. Fiction &amp; Cie
-Le lithopédion de Sens joue un rôle certain dans le chapitre 3.
-Dans la musique
-Lithopédion album qui est sorti le 15 juin 2018 sous le label 92i , du rappeur, chanteur, auteur-compositeur belge, Damso.
+Le lithopédion de Sens joue un rôle certain dans le chapitre 3.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Lithopédion</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lithop%C3%A9dion</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Le lithopédion au cinéma, à la télévision et dans la littérature</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dans la musique</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Lithopédion album qui est sorti le 15 juin 2018 sous le label 92i , du rappeur, chanteur, auteur-compositeur belge, Damso.
 « J’aurai aimé vivre et mourir dans le ventre de ma mère comme un lithopédion » paroles extraites de la chanson innenregistrable du rappeur français Despo Rutti.</t>
         </is>
       </c>
